--- a/ntrees_graphic_examples.xlsx
+++ b/ntrees_graphic_examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="712" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="2480" yWindow="0" windowWidth="26240" windowHeight="16280" tabRatio="712" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Complete_n-tree" sheetId="6" r:id="rId1"/>
@@ -1058,27 +1058,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1087,15 +1066,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1112,12 +1082,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1132,6 +1096,42 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="333">
@@ -13109,7 +13109,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ins_lst_ptr-&gt;node-&gt;str-&gt;children to address of a malloc'd a </a:t>
+            <a:t>ins_lst_ptr-&gt;node-&gt;str-&gt;children to address of a malloc'</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
@@ -13178,7 +13178,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Intialize ins_lst_ptr-&gt;node-&gt;str-&gt;children-&gt;node to address of a mallocd a </a:t>
+            <a:t>Intialize ins_lst_ptr-&gt;node-&gt;str-&gt;children-&gt;node to address of a mallocd </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
@@ -19908,7 +19908,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Create a temporary list pointer, List, and NTree.</a:t>
+            <a:t>- Create a temporary list pointer and struct List.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19988,13 +19988,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
+      <xdr:colOff>211668</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>524933</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -20005,8 +20005,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2192867" y="1032933"/>
-          <a:ext cx="4868333" cy="1354667"/>
+          <a:off x="2180168" y="1003300"/>
+          <a:ext cx="4995332" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20041,13 +20041,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:colOff>42336</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>567267</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:to>
@@ -20058,8 +20058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2954867" y="1261533"/>
-          <a:ext cx="4148667" cy="3572934"/>
+          <a:off x="2937936" y="1295400"/>
+          <a:ext cx="4237564" cy="3522134"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23719,7 +23719,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>So, traverse right in the n-tree</a:t>
+            <a:t>So, traverse </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>right</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in the n-tree</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23737,7 +23759,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>690880</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:rowOff>143934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23746,8 +23768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7122160" y="2122170"/>
-          <a:ext cx="1879600" cy="499110"/>
+          <a:off x="6062133" y="2127250"/>
+          <a:ext cx="1876214" cy="599017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24974,7 +24996,7 @@
         <a:p>
           <a:pPr marL="0" indent="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -38786,8 +38808,8 @@
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28238</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434638</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>121074</xdr:rowOff>
     </xdr:to>
@@ -39667,65 +39689,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="34" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="13" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="12"/>
@@ -39873,11 +39895,11 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="1"/>
-      <c r="U8" s="40" t="s">
+      <c r="U8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1">
       <c r="C9" s="12"/>
@@ -40853,65 +40875,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="34" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="13" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="12"/>
@@ -41053,11 +41075,11 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="1"/>
-      <c r="U8" s="40" t="s">
+      <c r="U8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1">
       <c r="C9" s="12"/>
@@ -42038,69 +42060,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="34" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="13" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="15" thickBot="1">
       <c r="E3" s="24"/>
@@ -42150,7 +42172,7 @@
       <c r="R5" s="1"/>
       <c r="U5" s="2"/>
       <c r="V5" s="17"/>
-      <c r="W5" s="60" t="s">
+      <c r="W5" s="48" t="s">
         <v>48</v>
       </c>
       <c r="X5" s="18"/>
@@ -42283,11 +42305,11 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="1"/>
-      <c r="W10" s="37" t="s">
+      <c r="W10" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="39"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" thickTop="1">
       <c r="E11" s="12"/>
@@ -42304,11 +42326,11 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="1"/>
-      <c r="W11" s="40" t="s">
+      <c r="W11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="42"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
     </row>
     <row r="12" spans="1:37">
       <c r="B12" s="7"/>
@@ -43418,8 +43440,8 @@
   </sheetPr>
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AC42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -43466,69 +43488,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="34" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="13" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="15" thickBot="1">
       <c r="E3" s="24"/>
@@ -43578,7 +43600,7 @@
       <c r="R5" s="1"/>
       <c r="U5" s="2"/>
       <c r="V5" s="17"/>
-      <c r="W5" s="60" t="s">
+      <c r="W5" s="48" t="s">
         <v>48</v>
       </c>
       <c r="X5" s="18"/>
@@ -43711,11 +43733,11 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="1"/>
-      <c r="W10" s="37" t="s">
+      <c r="W10" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="39"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" thickTop="1">
       <c r="E11" s="12"/>
@@ -43732,11 +43754,11 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="1"/>
-      <c r="W11" s="40" t="s">
+      <c r="W11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="42"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
     </row>
     <row r="12" spans="1:37">
       <c r="B12" s="7"/>
@@ -44846,8 +44868,8 @@
   </sheetPr>
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:AA50"/>
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -44892,65 +44914,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="34" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="13" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="C3" s="24"/>
@@ -45113,11 +45135,11 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="1"/>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="38"/>
-      <c r="W10" s="39"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" thickTop="1">
       <c r="C11" s="12"/>
@@ -45134,11 +45156,11 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="1"/>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="42"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="53"/>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="8" t="s">
@@ -45160,7 +45182,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="12"/>
@@ -45365,7 +45387,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="J23" s="4"/>
-      <c r="Q23" s="58" t="s">
+      <c r="Q23" s="46" t="s">
         <v>19</v>
       </c>
       <c r="S23" s="8" t="s">
@@ -45647,7 +45669,7 @@
       <c r="M33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="58" t="s">
+      <c r="Q33" s="46" t="s">
         <v>14</v>
       </c>
       <c r="S33" s="8" t="s">
@@ -45923,7 +45945,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="14" customHeight="1">
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -46054,7 +46076,7 @@
   </sheetPr>
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection sqref="A1:AA43"/>
     </sheetView>
   </sheetViews>
@@ -46100,65 +46122,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="34" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="13" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="C3" s="24"/>
@@ -46321,11 +46343,11 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="1"/>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="38"/>
-      <c r="W10" s="39"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" thickTop="1">
       <c r="C11" s="12"/>
@@ -46342,11 +46364,11 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="1"/>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="42"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="53"/>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="8" t="s">
@@ -46368,7 +46390,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="12"/>
@@ -46573,7 +46595,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="J23" s="4"/>
-      <c r="Q23" s="58" t="s">
+      <c r="Q23" s="46" t="s">
         <v>19</v>
       </c>
       <c r="S23" s="8" t="s">
@@ -46855,7 +46877,7 @@
       <c r="M33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="58" t="s">
+      <c r="Q33" s="46" t="s">
         <v>14</v>
       </c>
       <c r="S33" s="8" t="s">
@@ -47262,32 +47284,32 @@
   </sheetPr>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AA51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P8" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.83203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="2.33203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -47307,64 +47329,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="34" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="12" customHeight="1">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
     </row>
     <row r="3" spans="1:29" ht="14" customHeight="1"/>
     <row r="4" spans="1:29" ht="15" thickBot="1">
@@ -47393,7 +47415,7 @@
       <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="12"/>
@@ -47542,11 +47564,11 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="1"/>
-      <c r="U11" s="37" t="s">
+      <c r="U11" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="38"/>
-      <c r="W11" s="39"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" thickTop="1">
       <c r="D12" s="12"/>
@@ -47562,11 +47584,11 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="1"/>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="42"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="1:29" ht="14" customHeight="1">
       <c r="A13" s="8" t="s">
@@ -47585,17 +47607,17 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="1"/>
-      <c r="U13" s="46" t="s">
+      <c r="U13" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="47"/>
-      <c r="W13" s="48"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="41"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -47628,7 +47650,7 @@
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="12"/>
@@ -47643,7 +47665,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="1"/>
-      <c r="T16" s="52">
+      <c r="T16" s="42">
         <v>9</v>
       </c>
       <c r="X16" s="2" t="s">
@@ -47665,9 +47687,9 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11"/>
-      <c r="R17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="X17" s="50"/>
+      <c r="R17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="X17" s="40"/>
     </row>
     <row r="18" spans="1:29" ht="14" customHeight="1">
       <c r="A18" s="26" t="s">
@@ -47743,7 +47765,7 @@
       <c r="A21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="40"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
       <c r="J21" s="4"/>
@@ -47754,15 +47776,15 @@
       <c r="Q21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="50"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T21" s="50"/>
+      <c r="T21" s="40"/>
       <c r="W21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="50"/>
+      <c r="X21" s="40"/>
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="14" customHeight="1">
@@ -47776,7 +47798,7 @@
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -47785,15 +47807,15 @@
       <c r="Q23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="50"/>
+      <c r="R23" s="40"/>
       <c r="S23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="50"/>
+      <c r="T23" s="40"/>
       <c r="W23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X23" s="50"/>
+      <c r="X23" s="40"/>
     </row>
     <row r="24" spans="1:29" ht="14" customHeight="1" thickBot="1">
       <c r="A24" s="8" t="s">
@@ -47804,7 +47826,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="J24" s="4"/>
-      <c r="M24" s="52"/>
+      <c r="M24" s="42"/>
       <c r="Q24" s="8" t="s">
         <v>19</v>
       </c>
@@ -47814,10 +47836,10 @@
       <c r="W24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA24" s="57" t="s">
+      <c r="AA24" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="AB24" s="43"/>
+      <c r="AB24" s="36"/>
     </row>
     <row r="25" spans="1:29" ht="14" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="8" t="s">
@@ -47840,7 +47862,7 @@
       <c r="AA25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AB25" s="43"/>
+      <c r="AB25" s="36"/>
       <c r="AC25" s="9"/>
     </row>
     <row r="26" spans="1:29" ht="14" customHeight="1" thickTop="1" thickBot="1">
@@ -47850,44 +47872,44 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="42">
         <v>19</v>
       </c>
-      <c r="N26" s="52">
+      <c r="N26" s="42">
         <v>18</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R26" s="50"/>
+      <c r="R26" s="40"/>
       <c r="S26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="50" t="s">
+      <c r="T26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="50" t="s">
+      <c r="V26" s="40" t="s">
         <v>58</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="X26" s="50" t="s">
+      <c r="X26" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z26" s="50" t="s">
+      <c r="Z26" s="40" t="s">
         <v>54</v>
       </c>
       <c r="AA26" s="25" t="s">
@@ -47896,7 +47918,7 @@
       <c r="AC26" s="9"/>
     </row>
     <row r="27" spans="1:29" ht="14" customHeight="1" thickTop="1">
-      <c r="B27" s="50"/>
+      <c r="B27" s="40"/>
       <c r="W27" s="1" t="s">
         <v>55</v>
       </c>
@@ -47936,13 +47958,13 @@
       <c r="W28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Y28" s="44" t="s">
+      <c r="Y28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AA28" s="44" t="s">
+      <c r="AA28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AB28" s="49"/>
+      <c r="AB28" s="39"/>
     </row>
     <row r="29" spans="1:29" ht="14" customHeight="1">
       <c r="A29" s="26" t="s">
@@ -47978,10 +48000,10 @@
       <c r="W29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Y29" s="44" t="s">
+      <c r="Y29" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA29" s="44" t="s">
+      <c r="AA29" s="37" t="s">
         <v>28</v>
       </c>
       <c r="AB29" s="17"/>
@@ -48020,10 +48042,10 @@
       <c r="W30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Y30" s="45" t="s">
+      <c r="Y30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AA30" s="45" t="s">
+      <c r="AA30" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -48031,112 +48053,112 @@
       <c r="A31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="50"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="50"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="50"/>
+      <c r="L31" s="40"/>
       <c r="M31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N31" s="50"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R31" s="50"/>
+      <c r="R31" s="40"/>
       <c r="S31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T31" s="50"/>
+      <c r="T31" s="40"/>
       <c r="U31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="V31" s="50"/>
+      <c r="V31" s="40"/>
       <c r="W31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="45" t="s">
+      <c r="X31" s="40"/>
+      <c r="Y31" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="45" t="s">
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AB31" s="50"/>
+      <c r="AB31" s="40"/>
     </row>
     <row r="32" spans="1:29" ht="14" customHeight="1"/>
     <row r="33" spans="1:28" ht="14" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="50"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="50"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="50"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="50"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="50"/>
+      <c r="N33" s="40"/>
       <c r="Q33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="50"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="50"/>
+      <c r="T33" s="40"/>
       <c r="U33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="50"/>
+      <c r="V33" s="40"/>
       <c r="W33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="44" t="s">
+      <c r="X33" s="40"/>
+      <c r="Y33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="44" t="s">
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB33" s="50"/>
+      <c r="AB33" s="40"/>
     </row>
     <row r="34" spans="1:28" ht="14" customHeight="1">
       <c r="A34" s="8" t="s">
@@ -48172,10 +48194,10 @@
       <c r="W34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y34" s="44" t="s">
+      <c r="Y34" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AA34" s="44" t="s">
+      <c r="AA34" s="37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -48213,10 +48235,10 @@
       <c r="W35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y35" s="44" t="s">
+      <c r="Y35" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AA35" s="44" t="s">
+      <c r="AA35" s="37" t="s">
         <v>6</v>
       </c>
       <c r="AB35" s="17"/>
@@ -48249,7 +48271,7 @@
       <c r="S36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T36" s="50" t="s">
+      <c r="T36" s="40" t="s">
         <v>60</v>
       </c>
       <c r="U36" s="8" t="s">
@@ -48258,10 +48280,10 @@
       <c r="W36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Y36" s="44" t="s">
+      <c r="Y36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AA36" s="44" t="s">
+      <c r="AA36" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -48311,12 +48333,12 @@
       <c r="S41" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T41" s="50"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:28" ht="14" customHeight="1">
       <c r="O42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="50"/>
+      <c r="R42" s="40"/>
     </row>
     <row r="43" spans="1:28" ht="14" customHeight="1">
       <c r="C43" s="26" t="s">
@@ -48346,7 +48368,7 @@
       <c r="S43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="50"/>
+      <c r="T43" s="40"/>
     </row>
     <row r="44" spans="1:28" ht="14" customHeight="1">
       <c r="C44" s="26" t="s">
@@ -48431,11 +48453,11 @@
       <c r="Q46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R46" s="50"/>
+      <c r="R46" s="40"/>
       <c r="S46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T46" s="50" t="s">
+      <c r="T46" s="40" t="s">
         <v>59</v>
       </c>
     </row>
@@ -48467,7 +48489,7 @@
       <c r="Q48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="50"/>
+      <c r="R48" s="40"/>
       <c r="S48" s="26" t="s">
         <v>29</v>
       </c>
@@ -48558,13 +48580,13 @@
       <c r="S51" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T51" s="50"/>
+      <c r="T51" s="40"/>
     </row>
     <row r="53" spans="3:20">
       <c r="S53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T53" s="50"/>
+      <c r="T53" s="40"/>
     </row>
     <row r="54" spans="3:20">
       <c r="S54" s="8" t="s">
@@ -48608,8 +48630,8 @@
   </sheetPr>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="AB42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -48617,27 +48639,27 @@
     <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.83203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="2.33203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.33203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="2.33203125" style="2" customWidth="1"/>
     <col min="27" max="28" width="9.83203125" style="1" customWidth="1"/>
@@ -48653,64 +48675,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="34" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="12" customHeight="1">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
     </row>
     <row r="3" spans="1:29" ht="14" customHeight="1"/>
     <row r="4" spans="1:29" ht="15" thickBot="1">
@@ -48739,7 +48761,7 @@
       <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="12"/>
@@ -48888,11 +48910,11 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="1"/>
-      <c r="U11" s="37" t="s">
+      <c r="U11" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="38"/>
-      <c r="W11" s="39"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" thickTop="1">
       <c r="D12" s="12"/>
@@ -48908,11 +48930,11 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="1"/>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="42"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="1:29" ht="14" customHeight="1">
       <c r="A13" s="8" t="s">
@@ -48931,17 +48953,17 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="1"/>
-      <c r="U13" s="46" t="s">
+      <c r="U13" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="47"/>
-      <c r="W13" s="48"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="41"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -48974,7 +48996,7 @@
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="12"/>
@@ -48989,7 +49011,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="1"/>
-      <c r="T16" s="52">
+      <c r="T16" s="42">
         <v>9</v>
       </c>
       <c r="X16" s="2" t="s">
@@ -49011,9 +49033,9 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11"/>
-      <c r="R17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="X17" s="50"/>
+      <c r="R17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="X17" s="40"/>
     </row>
     <row r="18" spans="1:29" ht="14" customHeight="1">
       <c r="A18" s="26" t="s">
@@ -49089,7 +49111,7 @@
       <c r="A21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="40"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
       <c r="J21" s="4"/>
@@ -49100,15 +49122,15 @@
       <c r="Q21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="50"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T21" s="50"/>
+      <c r="T21" s="40"/>
       <c r="W21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="50"/>
+      <c r="X21" s="40"/>
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="14" customHeight="1">
@@ -49122,7 +49144,7 @@
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -49131,15 +49153,15 @@
       <c r="Q23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="50"/>
+      <c r="R23" s="40"/>
       <c r="S23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="50"/>
+      <c r="T23" s="40"/>
       <c r="W23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X23" s="50"/>
+      <c r="X23" s="40"/>
     </row>
     <row r="24" spans="1:29" ht="14" customHeight="1" thickBot="1">
       <c r="A24" s="8" t="s">
@@ -49150,7 +49172,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="J24" s="4"/>
-      <c r="M24" s="52"/>
+      <c r="M24" s="42"/>
       <c r="Q24" s="8" t="s">
         <v>19</v>
       </c>
@@ -49160,10 +49182,10 @@
       <c r="W24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA24" s="57" t="s">
+      <c r="AA24" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="AB24" s="43"/>
+      <c r="AB24" s="36"/>
     </row>
     <row r="25" spans="1:29" ht="14" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="8" t="s">
@@ -49186,7 +49208,7 @@
       <c r="AA25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AB25" s="43"/>
+      <c r="AB25" s="36"/>
       <c r="AC25" s="9"/>
     </row>
     <row r="26" spans="1:29" ht="14" customHeight="1" thickTop="1" thickBot="1">
@@ -49196,44 +49218,44 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="42">
         <v>19</v>
       </c>
-      <c r="N26" s="52">
+      <c r="N26" s="42">
         <v>18</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R26" s="50"/>
+      <c r="R26" s="40"/>
       <c r="S26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="50" t="s">
+      <c r="T26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="50" t="s">
+      <c r="V26" s="40" t="s">
         <v>58</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="X26" s="50" t="s">
+      <c r="X26" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z26" s="50" t="s">
+      <c r="Z26" s="40" t="s">
         <v>54</v>
       </c>
       <c r="AA26" s="25" t="s">
@@ -49242,7 +49264,7 @@
       <c r="AC26" s="9"/>
     </row>
     <row r="27" spans="1:29" ht="14" customHeight="1" thickTop="1">
-      <c r="B27" s="50"/>
+      <c r="B27" s="40"/>
       <c r="W27" s="1" t="s">
         <v>55</v>
       </c>
@@ -49282,13 +49304,13 @@
       <c r="W28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Y28" s="44" t="s">
+      <c r="Y28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AA28" s="44" t="s">
+      <c r="AA28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AB28" s="49"/>
+      <c r="AB28" s="39"/>
     </row>
     <row r="29" spans="1:29" ht="14" customHeight="1">
       <c r="A29" s="26" t="s">
@@ -49324,10 +49346,10 @@
       <c r="W29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Y29" s="44" t="s">
+      <c r="Y29" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA29" s="44" t="s">
+      <c r="AA29" s="37" t="s">
         <v>28</v>
       </c>
       <c r="AB29" s="17"/>
@@ -49366,10 +49388,10 @@
       <c r="W30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Y30" s="45" t="s">
+      <c r="Y30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AA30" s="45" t="s">
+      <c r="AA30" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -49377,112 +49399,112 @@
       <c r="A31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="50"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="50"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="50"/>
+      <c r="L31" s="40"/>
       <c r="M31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N31" s="50"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R31" s="50"/>
+      <c r="R31" s="40"/>
       <c r="S31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T31" s="50"/>
+      <c r="T31" s="40"/>
       <c r="U31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="V31" s="50"/>
+      <c r="V31" s="40"/>
       <c r="W31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="45" t="s">
+      <c r="X31" s="40"/>
+      <c r="Y31" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="45" t="s">
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AB31" s="50"/>
+      <c r="AB31" s="40"/>
     </row>
     <row r="32" spans="1:29" ht="14" customHeight="1"/>
     <row r="33" spans="1:28" ht="14" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="50"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="50"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="50"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="50"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="50"/>
+      <c r="N33" s="40"/>
       <c r="Q33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="50"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="50"/>
+      <c r="T33" s="40"/>
       <c r="U33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="50"/>
+      <c r="V33" s="40"/>
       <c r="W33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="44" t="s">
+      <c r="X33" s="40"/>
+      <c r="Y33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="44" t="s">
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB33" s="50"/>
+      <c r="AB33" s="40"/>
     </row>
     <row r="34" spans="1:28" ht="14" customHeight="1">
       <c r="A34" s="8" t="s">
@@ -49518,10 +49540,10 @@
       <c r="W34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y34" s="44" t="s">
+      <c r="Y34" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AA34" s="44" t="s">
+      <c r="AA34" s="37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -49559,10 +49581,10 @@
       <c r="W35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y35" s="44" t="s">
+      <c r="Y35" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AA35" s="44" t="s">
+      <c r="AA35" s="37" t="s">
         <v>6</v>
       </c>
       <c r="AB35" s="17"/>
@@ -49595,7 +49617,7 @@
       <c r="S36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T36" s="50" t="s">
+      <c r="T36" s="40" t="s">
         <v>60</v>
       </c>
       <c r="U36" s="8" t="s">
@@ -49604,10 +49626,10 @@
       <c r="W36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Y36" s="44" t="s">
+      <c r="Y36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AA36" s="44" t="s">
+      <c r="AA36" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -49657,12 +49679,12 @@
       <c r="S41" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T41" s="50"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:28" ht="14" customHeight="1">
       <c r="O42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="50"/>
+      <c r="R42" s="40"/>
     </row>
     <row r="43" spans="1:28" ht="14" customHeight="1">
       <c r="C43" s="26" t="s">
@@ -49692,7 +49714,7 @@
       <c r="S43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="50"/>
+      <c r="T43" s="40"/>
     </row>
     <row r="44" spans="1:28" ht="14" customHeight="1">
       <c r="C44" s="26" t="s">
@@ -49777,11 +49799,11 @@
       <c r="Q46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R46" s="50"/>
+      <c r="R46" s="40"/>
       <c r="S46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T46" s="50" t="s">
+      <c r="T46" s="40" t="s">
         <v>59</v>
       </c>
     </row>
@@ -49813,7 +49835,7 @@
       <c r="Q48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="50"/>
+      <c r="R48" s="40"/>
       <c r="S48" s="26" t="s">
         <v>29</v>
       </c>
@@ -49904,13 +49926,13 @@
       <c r="S51" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T51" s="50"/>
+      <c r="T51" s="40"/>
     </row>
     <row r="53" spans="3:20">
       <c r="S53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T53" s="50"/>
+      <c r="T53" s="40"/>
     </row>
     <row r="54" spans="3:20">
       <c r="S54" s="8" t="s">
